--- a/templates/sample/BOM_sample_input.xlsx
+++ b/templates/sample/BOM_sample_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bom_quoter\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bom_quoter\templates\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DA705A0-FD79-4FF6-B8B1-F7BD3C74E121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EF8137-7493-48BA-A417-70580F8BC751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24285" yWindow="4185" windowWidth="21585" windowHeight="11295" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="1980" windowWidth="23370" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-072104-01-b (1) (1)" sheetId="1" r:id="rId1"/>
@@ -1503,11 +1503,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="11" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -2285,7 +2288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
